--- a/clean_data/cleaned data/cleaned_data_Resiliation.xlsx
+++ b/clean_data/cleaned data/cleaned_data_Resiliation.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CONTACT1_CLIENT</t>
+          <t>CONTACT_CLIENT</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
